--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>CIK</t>
   </si>
@@ -28,109 +28,97 @@
     <t>Results</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>&gt;</t>
+    <t>termination fee</t>
+  </si>
+  <si>
+    <t>traded on the NASDAQ Capital Market. If the Merger Agreement is terminated under specified circumstances, FairPoint may be obligated to pay Consolidated a termination fee of $18.9&amp;nbsp;million, and</t>
+  </si>
+  <si>
+    <t>upon termination of the Merger Agreement under certain other circumstances, Consolidated may be obligated to pay FairPoint a termination fee of $18.9&amp;nbsp;million, as described more fully in this</t>
+  </si>
+  <si>
+    <t>In addition, the Merger Agreement provides that, in certain circumstances, FairPoint may be required to pay Consolidated a termination fee of $18.9&amp;nbsp;million and that, in other circumstances,</t>
+  </si>
+  <si>
+    <t>Consolidated may be required to pay FairPoint a termination fee of $18.9&amp;nbsp;million. &lt;/font&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Consolidated the termination fee described above). &lt;/font&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>withdraws, amends or modifies its recommendation regarding the proposed Merger, Consolidated has the right to terminate the Merger Agreement and receive an $18.9&amp;nbsp;million termination fee from</t>
+  </si>
+  <si>
+    <t>the added expense of the termination fee. &lt;/font&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>accelerate in the event of a failed transaction. In addition, if the Merger is not completed, Consolidated or FairPoint may be required to pay a termination fee of $18.9&amp;nbsp;million under certain</t>
+  </si>
+  <si>
+    <t>payable in a combination of cash and stock, and a termination fee of $25,000,000 payable by FairPoint in the event that the transaction did not close. &lt;/font&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>warranties and covenants of Consolidated and a reverse termination fee payable by Consolidated and a reduction of the termination fee payable by FairPoint to 2% of the value of the transaction. &lt;/font&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>the revisions to the "deal protection" provisions, including deletion of the reverse termination fee payable by Consolidated and an increase of the termination fee payable by FairPoint from 2% to 3.5%</t>
+  </si>
+  <si>
+    <t>stock-based awards, price protections, the financial provisions of the merger agreement, which the parties agreed remained open for further discussion, and the reverse termination fees and fiduciary</t>
+  </si>
+  <si>
+    <t>certain reciprocal representations, warranties and covenants in light of the "stock-for-stock" nature of the transaction and a reverse termination fee payable by Consolidated. The revisions included</t>
+  </si>
+  <si>
+    <t>noted that a termination fee within a range of 3 to 3.5% of deal value would be acceptable to FairPoint, subject to acceptance by Consolidated of a reverse termination fee payable by Consolidated, at</t>
+  </si>
+  <si>
+    <t>Various terms of the draft merger agreement were discussed, including the FairPoint termination fee and the reverse termination fee and Consolidated's new request for a mandatory minimum level of cash</t>
+  </si>
+  <si>
+    <t>the event the debt financing became unavailable. The draft also added a termination fee payable by FairPoint and the reverse termination fee payable by Consolidated both equal to 3.25% of the agreed</t>
+  </si>
+  <si>
+    <t>proposal and to terminate the Merger Agreement to accept a superior proposal, subject to payment to Consolidated of a termination fee of $18.9&amp;nbsp;million; &lt;/font&gt; &lt;font size="2"&gt;</t>
+  </si>
+  <si>
+    <t>Consolidated of a termination fee of $18.9&amp;nbsp;million; &lt;/font&gt;&lt;font size="2"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;&lt;/font&gt;&lt;/dd&gt;&lt;dt style="font-family:times;margin-bottom:-11pt;"&gt;&lt;font size="2"&gt;•&lt;/font&gt;&lt;/dt&gt;&lt;dd style="font-family:times;"&gt;&lt;font size="2"&gt; The FairPoint Board determined the amount of the termination fee to be reasonable in light of, among other factors, the benefits of the Merger</t>
+  </si>
+  <si>
+    <t>(provided, however, that in the circumstances described in this bullet point, FairPoint concurrently terminates the Merger Agreement, pays the termination fee if, when, and as required by the Merger</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;&lt;/font&gt;&lt;/dd&gt;&lt;dt style="font-family:times;margin-bottom:-11pt;"&gt;&lt;font size="2"&gt;•&lt;/font&gt;&lt;/dt&gt;&lt;dd style="font-family:times;"&gt;&lt;font size="2"&gt; FairPoint shall have validly terminated the Merger Agreement and paid the termination fee in accordance with the Merger Agreement, and prior to</t>
+  </si>
+  <si>
+    <t>Solicitation; Changes in Recommendations" on page 105 have been fully satisfied and FairPoint pays to Consolidated the $18.9&amp;nbsp;million termination fee described below;  &lt;/font&gt; &lt;font size="2"&gt;</t>
+  </si>
+  <si>
+    <t>the termination fees described below) and the confidentiality agreement dated August&amp;nbsp;19, 2016 between FairPoint and Consolidated will survive termination, and &lt;/font&gt; &lt;font size="2"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;&lt;/font&gt;&lt;/dd&gt;&lt;dt style="font-family:times;margin-bottom:-11pt;"&gt;&lt;font size="2"&gt;•&lt;/font&gt;&lt;/dt&gt;&lt;dd style="font-family:times;"&gt;&lt;font size="2"&gt; in certain circumstances described below, FairPoint may be required to pay Consolidated a termination fee of $18.9&amp;nbsp;million and that, in</t>
+  </si>
+  <si>
+    <t>other circumstances described below, Consolidated may be required to pay FairPoint a termination fee of $18.9&amp;nbsp;million. &lt;/font&gt;&lt;/dd&gt;&lt;/dl&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p style="font-family:times;"&gt;&lt;font size="2"&gt;&lt;i&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Termination Fees.&lt;/i&gt;&lt;/font&gt;&lt;font size="2"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Under the Merger Agreement, FairPoint has agreed to pay Consolidated a termination fee of $18.9&amp;nbsp;million if the</t>
+  </si>
+  <si>
+    <t>under the Merger Agreement, Consolidated has agreed to pay FairPoint a termination fee of $18.9&amp;nbsp;million if the Merger Agreement is terminated by FairPoint if</t>
+  </si>
+  <si>
+    <t>&lt;p style="font-family:times;"&gt;&lt;font size="2"&gt;&lt;i&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Expenses.&lt;/i&gt;&lt;/font&gt;&lt;font size="2"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;If FairPoint fails to pay promptly any termination fee due to Consolidated, FairPoint will also be obligated to pay the costs</t>
+  </si>
+  <si>
+    <t>obligation from the date such fee was required to be paid. If Consolidated fails to pay promptly any termination fee due to FairPoint, Consolidated will also be obligated to pay the costs and expenses</t>
+  </si>
+  <si>
+    <t>termination fee of $18,900 and, upon termination of the Merger Agreement under certain other circumstances, Consolidated may be obligated to pay FairPoint a termination fee of $18,900. &lt;/font&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -462,13 +450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,12 +470,99 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:33">
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>CIK</t>
   </si>
@@ -28,97 +28,106 @@
     <t>Results</t>
   </si>
   <si>
-    <t>termination fee</t>
-  </si>
-  <si>
-    <t>traded on the NASDAQ Capital Market. If the Merger Agreement is terminated under specified circumstances, FairPoint may be obligated to pay Consolidated a termination fee of $18.9&amp;nbsp;million, and</t>
-  </si>
-  <si>
-    <t>upon termination of the Merger Agreement under certain other circumstances, Consolidated may be obligated to pay FairPoint a termination fee of $18.9&amp;nbsp;million, as described more fully in this</t>
-  </si>
-  <si>
-    <t>In addition, the Merger Agreement provides that, in certain circumstances, FairPoint may be required to pay Consolidated a termination fee of $18.9&amp;nbsp;million and that, in other circumstances,</t>
-  </si>
-  <si>
-    <t>Consolidated may be required to pay FairPoint a termination fee of $18.9&amp;nbsp;million. &lt;/font&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Consolidated the termination fee described above). &lt;/font&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>withdraws, amends or modifies its recommendation regarding the proposed Merger, Consolidated has the right to terminate the Merger Agreement and receive an $18.9&amp;nbsp;million termination fee from</t>
-  </si>
-  <si>
-    <t>the added expense of the termination fee. &lt;/font&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>accelerate in the event of a failed transaction. In addition, if the Merger is not completed, Consolidated or FairPoint may be required to pay a termination fee of $18.9&amp;nbsp;million under certain</t>
-  </si>
-  <si>
-    <t>payable in a combination of cash and stock, and a termination fee of $25,000,000 payable by FairPoint in the event that the transaction did not close. &lt;/font&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>warranties and covenants of Consolidated and a reverse termination fee payable by Consolidated and a reduction of the termination fee payable by FairPoint to 2% of the value of the transaction. &lt;/font&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>the revisions to the "deal protection" provisions, including deletion of the reverse termination fee payable by Consolidated and an increase of the termination fee payable by FairPoint from 2% to 3.5%</t>
-  </si>
-  <si>
-    <t>stock-based awards, price protections, the financial provisions of the merger agreement, which the parties agreed remained open for further discussion, and the reverse termination fees and fiduciary</t>
-  </si>
-  <si>
-    <t>certain reciprocal representations, warranties and covenants in light of the "stock-for-stock" nature of the transaction and a reverse termination fee payable by Consolidated. The revisions included</t>
-  </si>
-  <si>
-    <t>noted that a termination fee within a range of 3 to 3.5% of deal value would be acceptable to FairPoint, subject to acceptance by Consolidated of a reverse termination fee payable by Consolidated, at</t>
-  </si>
-  <si>
-    <t>Various terms of the draft merger agreement were discussed, including the FairPoint termination fee and the reverse termination fee and Consolidated's new request for a mandatory minimum level of cash</t>
-  </si>
-  <si>
-    <t>the event the debt financing became unavailable. The draft also added a termination fee payable by FairPoint and the reverse termination fee payable by Consolidated both equal to 3.25% of the agreed</t>
-  </si>
-  <si>
-    <t>proposal and to terminate the Merger Agreement to accept a superior proposal, subject to payment to Consolidated of a termination fee of $18.9&amp;nbsp;million; &lt;/font&gt; &lt;font size="2"&gt;</t>
-  </si>
-  <si>
-    <t>Consolidated of a termination fee of $18.9&amp;nbsp;million; &lt;/font&gt;&lt;font size="2"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;br&gt;&lt;/font&gt;&lt;/dd&gt;&lt;dt style="font-family:times;margin-bottom:-11pt;"&gt;&lt;font size="2"&gt;•&lt;/font&gt;&lt;/dt&gt;&lt;dd style="font-family:times;"&gt;&lt;font size="2"&gt; The FairPoint Board determined the amount of the termination fee to be reasonable in light of, among other factors, the benefits of the Merger</t>
-  </si>
-  <si>
-    <t>(provided, however, that in the circumstances described in this bullet point, FairPoint concurrently terminates the Merger Agreement, pays the termination fee if, when, and as required by the Merger</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;br&gt;&lt;/font&gt;&lt;/dd&gt;&lt;dt style="font-family:times;margin-bottom:-11pt;"&gt;&lt;font size="2"&gt;•&lt;/font&gt;&lt;/dt&gt;&lt;dd style="font-family:times;"&gt;&lt;font size="2"&gt; FairPoint shall have validly terminated the Merger Agreement and paid the termination fee in accordance with the Merger Agreement, and prior to</t>
-  </si>
-  <si>
-    <t>Solicitation; Changes in Recommendations" on page 105 have been fully satisfied and FairPoint pays to Consolidated the $18.9&amp;nbsp;million termination fee described below;  &lt;/font&gt; &lt;font size="2"&gt;</t>
-  </si>
-  <si>
-    <t>the termination fees described below) and the confidentiality agreement dated August&amp;nbsp;19, 2016 between FairPoint and Consolidated will survive termination, and &lt;/font&gt; &lt;font size="2"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;br&gt;&lt;/font&gt;&lt;/dd&gt;&lt;dt style="font-family:times;margin-bottom:-11pt;"&gt;&lt;font size="2"&gt;•&lt;/font&gt;&lt;/dt&gt;&lt;dd style="font-family:times;"&gt;&lt;font size="2"&gt; in certain circumstances described below, FairPoint may be required to pay Consolidated a termination fee of $18.9&amp;nbsp;million and that, in</t>
-  </si>
-  <si>
-    <t>other circumstances described below, Consolidated may be required to pay FairPoint a termination fee of $18.9&amp;nbsp;million. &lt;/font&gt;&lt;/dd&gt;&lt;/dl&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p style="font-family:times;"&gt;&lt;font size="2"&gt;&lt;i&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Termination Fees.&lt;/i&gt;&lt;/font&gt;&lt;font size="2"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Under the Merger Agreement, FairPoint has agreed to pay Consolidated a termination fee of $18.9&amp;nbsp;million if the</t>
-  </si>
-  <si>
-    <t>under the Merger Agreement, Consolidated has agreed to pay FairPoint a termination fee of $18.9&amp;nbsp;million if the Merger Agreement is terminated by FairPoint if</t>
-  </si>
-  <si>
-    <t>&lt;p style="font-family:times;"&gt;&lt;font size="2"&gt;&lt;i&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Expenses.&lt;/i&gt;&lt;/font&gt;&lt;font size="2"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;If FairPoint fails to pay promptly any termination fee due to Consolidated, FairPoint will also be obligated to pay the costs</t>
-  </si>
-  <si>
-    <t>obligation from the date such fee was required to be paid. If Consolidated fails to pay promptly any termination fee due to FairPoint, Consolidated will also be obligated to pay the costs and expenses</t>
-  </si>
-  <si>
-    <t>termination fee of $18,900 and, upon termination of the Merger Agreement under certain other circumstances, Consolidated may be obligated to pay FairPoint a termination fee of $18,900. &lt;/font&gt;&lt;/p&gt;</t>
+    <t>July</t>
+  </si>
+  <si>
+    <t>July&amp;nbsp;7, 2016, B/E Aerospace and Rockwell Collins executed a mutual non-disclosure agreement. Following execution of the agreement, representatives of senior management of</t>
+  </si>
+  <si>
+    <t>Rockwell Collins and B/E Aerospace scheduled a meeting for July&amp;nbsp;20, 2016. &lt;/FONT&gt;&lt;/P&gt;</t>
+  </si>
+  <si>
+    <t>July&amp;nbsp;20, 2016, representatives of senior management of B/E Aerospace (Messrs.&amp;nbsp;Khoury and Lower and Mr.&amp;nbsp;Werner Lieberherr, President and Chief Executive Officer of</t>
+  </si>
+  <si>
+    <t>July&amp;nbsp;28, 2016, the B/E Aerospace Board met in Boston, Massachusetts in connection with the regularly scheduled annual meeting of stockholders of B/E Aerospace. At this meeting,</t>
+  </si>
+  <si>
+    <t>August&amp;nbsp;9, 2016, senior management of B/E Aerospace and Rockwell Collins met in New York to continue preliminary discussions regarding a potential transaction involving the two</t>
+  </si>
+  <si>
+    <t>August&amp;nbsp;10, 2016, representatives of senior management of B/E Aerospace and Rockwell Collins, together with representatives from Shearman&amp;nbsp;&amp;amp; Sterling&amp;nbsp;LLP, which is</t>
+  </si>
+  <si>
+    <t>August&amp;nbsp;15, 2015, the executive committee of the Rockwell Collins Board met telephonically. At the meeting, Rockwell Collins senior management provided the committee with an</t>
+  </si>
+  <si>
+    <t>update on the potential acquisition of B/E Aerospace, including the meetings between the two parties on August&amp;nbsp;9 and August&amp;nbsp;10, 2016. &lt;/FONT&gt;&lt;/P&gt;</t>
+  </si>
+  <si>
+    <t>August&amp;nbsp;16, 2016, the B/E Aerospace Board met telephonically. Present at the meeting were members of B/E Aerospace senior management and representatives from Shearman&amp;nbsp;&amp;amp;</t>
+  </si>
+  <si>
+    <t>Rockwell Collins, including a report on the meetings between the two parties on August&amp;nbsp;9 and August&amp;nbsp;10, 2016. &lt;/FONT&gt;&lt;/P&gt;</t>
+  </si>
+  <si>
+    <t>August&amp;nbsp;22, 2016, representatives of senior management of B/E Aerospace and Rockwell Collins met to further discuss the prospect of a potential transaction. The parties also</t>
+  </si>
+  <si>
+    <t>&lt;DT style='font-family:times;margin-bottom:-11pt;'&gt;&lt;FONT SIZE=2&gt;&amp;#149;&lt;/FONT&gt;&lt;/DT&gt;&lt;DD style="font-family:times;"&gt;&lt;FONT SIZE=2&gt; a 34% premium to B/E Aerospace's closing share price of $46.34 as of July&amp;nbsp;20, 2016, the initial formal meeting between the</t>
+  </si>
+  <si>
+    <t>&lt;TD VALIGN="BOTTOM" style="font-family:times;"&gt;&lt;p style="font-family:times;margin-left:9pt;text-indent:-9pt;"&gt;&lt;FONT SIZE=2&gt; &lt;/FONT&gt;&lt;FONT SIZE=2&gt;August 2015&lt;/FONT&gt;&lt;/TD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TD VALIGN="BOTTOM" style="font-family:times;"&gt;&lt;p style="font-family:times;margin-left:9pt;text-indent:-9pt;"&gt;&lt;FONT SIZE=2&gt; &lt;/FONT&gt;&lt;FONT SIZE=2&gt;July 2007&lt;/FONT&gt;&lt;/TD&gt;</t>
+  </si>
+  <si>
+    <t>B/E&amp;nbsp;Aerospace common stock as of July&amp;nbsp;20, 2016 (the date of the initial meeting between the managements of B/E&amp;nbsp;Aerospace and Rockwell Collins to discuss a potential merger). &lt;/FONT&gt;&lt;/P&gt;</t>
+  </si>
+  <si>
+    <t>&lt;BR&gt;&lt;BR&gt;&lt;/FONT&gt;&lt;/DD&gt;&lt;DT style='font-family:times;margin-bottom:-11pt;'&gt;&lt;FONT SIZE=2&gt;&amp;#149;&lt;/FONT&gt;&lt;/DT&gt;&lt;DD style="font-family:times;"&gt;&lt;FONT SIZE=2&gt; a premium of 33.8% to the closing price of $46.34 per share of B/E&amp;nbsp;Aerospace common stock as of July&amp;nbsp;20, 2016. &lt;/FONT&gt;&lt;/DD&gt;&lt;/DL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DT style='font-family:times;margin-bottom:-11pt;'&gt;&lt;FONT SIZE=2&gt;&amp;#149;&lt;/FONT&gt;&lt;/DT&gt;&lt;DD style="font-family:times;"&gt;&lt;FONT SIZE=2&gt; Berkshire Hathaway&amp;nbsp;Inc./Precision Castparts Corp. (announced August 2015) &lt;/FONT&gt;&lt;FONT SIZE=2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;BR&gt;&lt;BR&gt;&lt;/FONT&gt;&lt;/DD&gt;&lt;DT style='font-family:times;margin-bottom:-11pt;'&gt;&lt;FONT SIZE=2&gt;&amp;#149;&lt;/FONT&gt;&lt;/DT&gt;&lt;DD style="font-family:times;"&gt;&lt;FONT SIZE=2&gt; Rockwell Collins,&amp;nbsp;Inc./Aeronautical Radio, Incorporated (announced August 2013) &lt;/FONT&gt;&lt;FONT SIZE=2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TD style="font-family:times;"&gt;&lt;FONT SIZE=2&gt;August 2015&lt;/FONT&gt;&lt;/TD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TD style="font-family:times;"&gt;&lt;FONT SIZE=2&gt;August 2013&lt;/FONT&gt;&lt;/TD&gt;</t>
+  </si>
+  <si>
+    <t>current employment agreements for Messrs.&amp;nbsp;Khoury, Lieberherr, Lower, and Patch first became effective on September&amp;nbsp;15, 2014, July&amp;nbsp;29, 2013, October&amp;nbsp;1,</t>
+  </si>
+  <si>
+    <t>2014, and July&amp;nbsp;29, 2013, respectively. The current agreements for Messrs.&amp;nbsp;Cromie and Plant first became effective on May&amp;nbsp;4, 2012 and February&amp;nbsp;4, 2013, respectively, and</t>
+  </si>
+  <si>
+    <t>Mr.&amp;nbsp;Khoury on July&amp;nbsp;1, 2014, including, without limitation, 100% payment for or reimbursement of medical and dental services or costs incurred by Mr.&amp;nbsp;Khoury and his family</t>
+  </si>
+  <si>
+    <t>medical reimbursement plan as of the date of Mr.&amp;nbsp;Khoury's termination of employment, but in no event less than those in effect as of July&amp;nbsp;1, 2014 (the "Post-Employment Benefits"). &lt;/FONT&gt;&lt;/P&gt;</t>
+  </si>
+  <si>
+    <t>on similar terms and conditions as active employees (provided that the level of such benefits is not less than the benefits available to Mr.&amp;nbsp;Lieberherr on July&amp;nbsp;1, 2013, as well as 100%</t>
+  </si>
+  <si>
+    <t>July&amp;nbsp;1, 2013. &lt;/FONT&gt;&lt;/P&gt;</t>
+  </si>
+  <si>
+    <t>active employees (provided that the level of such benefits is not less than the benefits available to Mr.&amp;nbsp;Patch on July&amp;nbsp;1, 2013), as well as 100% payment for and reimbursement of medical</t>
+  </si>
+  <si>
+    <t>confidentiality terms that, taken as a whole, are not materially less favorable to such party than those contained in the confidentiality agreement, dated as of July&amp;nbsp;7, 2016, between Rockwell</t>
+  </si>
+  <si>
+    <t>at Rockwell Collins' principal executive offices by August&amp;nbsp;18, 2016, 120 calendar days before the anniversary date of the mailing of Rockwell Collins' proxy statement to stockholders in</t>
+  </si>
+  <si>
+    <t>proposals to be made at the 2018 Annual Meeting of Shareowners must be received at Rockwell Collins' principal executive offices by August&amp;nbsp;18, 2017, 120 calendar days</t>
+  </si>
+  <si>
+    <t>ended June&amp;nbsp;30, 2016, filed with the SEC on July&amp;nbsp;29, 2016 and for the quarter ended September&amp;nbsp;30, 2016, filed with the SEC on October&amp;nbsp;28, 2016; &lt;/FONT&gt;&lt;FONT SIZE=2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;BR&gt;&lt;BR&gt;&lt;/FONT&gt;&lt;/DD&gt;&lt;DT style='font-family:times;margin-bottom:-11pt;'&gt;&lt;FONT SIZE=2&gt;&amp;#149;&lt;/FONT&gt;&lt;/DT&gt;&lt;DD style="font-family:times;"&gt;&lt;FONT SIZE=2&gt; Current reports on Form&amp;nbsp;8-K filed with the SEC on February&amp;nbsp;2, 2016, April&amp;nbsp;26, 2016, July&amp;nbsp;26, 2016,</t>
+  </si>
+  <si>
+    <t>SIZE=2&gt;&lt;B&gt;Confidentiality Agreement&lt;/B&gt;&lt;/FONT&gt;&lt;FONT SIZE=2&gt;" shall mean the confidentiality agreement, dated July&amp;nbsp;7, 2016, between Parent and the Company. &lt;/FONT&gt;&lt;/P&gt;</t>
   </si>
 </sst>
 </file>
@@ -450,13 +459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:37">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -556,13 +565,25 @@
         <v>31</v>
       </c>
       <c r="AE2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
